--- a/.idea/TTD  xx-xx-23 1.0.0.23.xlsx
+++ b/.idea/TTD  xx-xx-23 1.0.0.23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\opleidingen cursusen\NOVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F000B8-B0EE-4728-B816-C44D46DDEA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AF4CEC-5BB8-4478-A76C-D36610CD3D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3FCB4370-CD87-4B9A-9DAB-CBDAC08F1A27}"/>
   </bookViews>
@@ -48,12 +48,6 @@
   </si>
   <si>
     <t xml:space="preserve">TTD </t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>prioriteit (I tm V)</t>
   </si>
   <si>
     <r>
@@ -130,6 +124,12 @@
       <t>Huiswerk frons</t>
     </r>
   </si>
+  <si>
+    <t>check: X</t>
+  </si>
+  <si>
+    <t>prioriteit: I tm V</t>
+  </si>
 </sst>
 </file>
 
@@ -198,7 +198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -284,20 +284,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -320,31 +311,89 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="180"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="80">
+    <dxf>
+      <font>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -364,6 +413,70 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
       </font>
@@ -377,6 +490,455 @@
     <dxf>
       <font>
         <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
       </font>
     </dxf>
     <dxf>
@@ -696,45 +1258,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825BD38B-BB68-4B09-A7E4-89FA095C31E6}">
   <dimension ref="A1:J150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="5"/>
+    <col min="2" max="2" width="6.5703125" style="5" customWidth="1"/>
     <col min="3" max="3" width="58.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.5703125" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="4"/>
+    <col min="4" max="4" width="51.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="3.7109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="17">
+    <row r="1" spans="1:10" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="12">
         <f ca="1">TODAY()</f>
-        <v>45071</v>
-      </c>
-      <c r="C1" s="14" t="str">
-        <f ca="1">B2&amp;" "&amp;TEXT(B1,"dddd, dd-mm-jj")</f>
-        <v>TTD  donderdag, 25-05-23</v>
-      </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+        <v>45072</v>
+      </c>
+      <c r="C1" s="13" t="str">
+        <f ca="1">B2&amp;" "&amp;TEXT(A1,"dddd, dd-mm-jj")</f>
+        <v>TTD  vrijdag, 26-05-23</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="I1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="I2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>4</v>
-      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
@@ -742,12 +1304,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="4">
-        <f>IF(A3&gt;0,"??",0)</f>
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B4" s="6">
@@ -755,11 +1315,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="4">
-        <f t="shared" ref="I4:I67" si="0">IF(A4&gt;0,"??",0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -768,11 +1324,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -780,11 +1332,7 @@
         <f>IF(C6&gt;0,MAX($B$3:B5)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4">
-        <f t="shared" si="0"/>
+      <c r="D6" s="11" t="s">
         <v>0</v>
       </c>
     </row>
@@ -793,12 +1341,8 @@
         <f>IF(C7&gt;0,MAX($B$3:B6)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>1</v>
-      </c>
-      <c r="I7" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -806,12 +1350,8 @@
         <f>IF(C8&gt;0,MAX($B$3:B7)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>2</v>
-      </c>
-      <c r="I8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -821,7 +1361,7 @@
       </c>
       <c r="C9" s="9"/>
       <c r="I9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I4:I67" si="0">IF(A9&gt;0,"??",0)</f>
         <v>0</v>
       </c>
     </row>
@@ -852,7 +1392,7 @@
         <f>IF(C12&gt;0,MAX($B$3:B11)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="13"/>
+      <c r="D12" s="11"/>
       <c r="I12" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -863,7 +1403,7 @@
         <f>IF(C13&gt;0,MAX($B$3:B12)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="D13" s="13"/>
+      <c r="D13" s="11"/>
       <c r="I13" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -874,7 +1414,7 @@
         <f>IF(C14&gt;0,MAX($B$3:B13)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="13"/>
+      <c r="D14" s="11"/>
       <c r="I14" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -885,7 +1425,7 @@
         <f>IF(C15&gt;0,MAX($B$3:B14)+1,0)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="11"/>
       <c r="I15" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2242,23 +2782,60 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="B2:D2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+  <conditionalFormatting sqref="A3:XFD1048576 A2:H2 K2:XFD2 C1:XFD1 A1">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C150">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D150">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="greaterThan">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J1048576">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I150">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+      <formula>"II"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+      <formula>"III"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+      <formula>"IV"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+      <formula>"V"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3:B150">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
